--- a/datos/femicidios_2018.xlsx
+++ b/datos/femicidios_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG59"/>
+  <dimension ref="A1:AJ59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,6 +523,21 @@
           <t>informacion_medios_2</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>informacion_medios_3</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>informe_poder_judicial</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>ultima_fecha_de_modificacion</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -630,7 +645,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -1035,7 +1050,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1180,7 +1195,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1320,7 +1335,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1470,7 +1485,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1725,32 +1740,42 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>Homicidio calificado</t>
+          <t>Homicidio con violación</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Inhumación ilegal; Aborto</t>
+          <t>Aborto</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2019-06-27</t>
+          <t>2023-06-19</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Privado de libertad</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2° Juzgado de Garantía de Santiago</t>
+          <t>2° Tribunal de Juicio Oral en lo Penal de Santiago</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>2265-2023</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo calificado</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -1761,6 +1786,16 @@
       <c r="AG10" t="inlineStr">
         <is>
           <t>https://www.theclinic.cl/2019/10/02/el-ultimo-datito-que-se-maneja-en-el-caso-de-fernanda-maciel/</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>https://www.pjud.cl/prensa-y-comunicaciones/noticias-del-poder-judicial/94138</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -1880,7 +1915,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2025,7 +2060,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2305,7 +2340,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2660,7 +2695,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Marcelo Lagos</t>
+          <t>Marcelo Antonio Lagos Morales</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2705,7 +2740,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2855,7 +2890,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2995,7 +3030,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -3610,22 +3645,27 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2018-06-15</t>
+          <t>2020-11-17</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Privado de libertad</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13° Juzgado de Garantía de Santiago</t>
+          <t>7° Tribunal de Juicio Oral en lo Penal de Santiago</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>20 años de presidio</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
@@ -3636,6 +3676,16 @@
       <c r="AG24" t="inlineStr">
         <is>
           <t>http://www.eldesconcierto.cl/2018/06/15/pdi-detuvo-a-hombre-que-asesino-a-su-pareja-y-simulo-un-suicidio-en-penalolen/ http://www.chvnoticias.cl/policial/detuvieron-a-sujeto-por-femicidio-que-se-registro-en-penalolen/2018-06-15/064608.html</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>https://www.elmostrador.cl/braga/2020/11/17/juan-canulaf-es-condenado-a-20-anos-de-carcel-por-cometer-femicidio-y-simular-su-suicidio/</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -3745,22 +3795,27 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2018-06-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Privado de libertad</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>1° Juzgado de Garantía de Santiago</t>
+          <t>1° Juzgado de Juicio Oral en lo Penal de Santiago</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>15 años de presidio efectivo</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
@@ -3771,6 +3826,16 @@
       <c r="AG25" t="inlineStr">
         <is>
           <t>http://www.eldesconcierto.cl/2018/06/11/autor-confeso-de-femicidio-de-mujer-en-pudahuel-aseguro-que-fue-un-accidente/ https://www.publimetro.cl/cl/noticias/2018/06/10/detienen-a-presunto-femicida-en-pudahuel-habria-asesinado-a-amante-y-le-prendio-fuego-dentro-de-un-tambor.html</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-metropolitana/2019/12/11/15-anos-de-carcel-para-hombre-que-mato-y-quemo-a-su-pareja-en-pudahuel-se-pedia-presidio-perpetuo.shtml</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -3995,22 +4060,27 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2018-06-15</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Privado de libertad</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>9° Juzgado de Garantía de Santiago</t>
+          <t>5° Tribunal de Juicio Oral en lo Penal de Santiago</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo calificado</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
@@ -4021,6 +4091,16 @@
       <c r="AG27" t="inlineStr">
         <is>
           <t>http://www.24horas.cl/nacional/crimen-de-madre-e-hija-en-maipu-ex-pololo-de-joven-confiesa-y-da-detalles-del-crimen-2738738</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>https://cooperativa.cl/noticias/pais/policial/femicidio/fabian-caceres-fue-condenado-a-cadena-perpetua-por-asesinato-de-gabriela/2022-04-21/155254.html</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -4125,22 +4205,27 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2018-06-15</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Privado de libertad</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>9° Juzgado de Garantía de Santiago</t>
+          <t>5° Tribunal de Juicio Oral en lo Penal de Santiago</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo calificado</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
@@ -4151,6 +4236,16 @@
       <c r="AG28" t="inlineStr">
         <is>
           <t>https://www.biobiochile.cl/noticias/nacional/region-metropolitana/2018/06/12/investigan-hallazgo-de-los-cuerpos-de-una-mujer-y-una-adolescente-en-vivienda-de-maipu.shtml</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>https://cooperativa.cl/noticias/pais/policial/femicidio/fabian-caceres-fue-condenado-a-cadena-perpetua-por-asesinato-de-gabriela/2022-04-21/155254.html</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -4255,17 +4350,17 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Sobreseída</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2018-06-12</t>
+          <t>2022-02-13</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Detenido</t>
+          <t>Incapacitado, internado en una casa de ciudados</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
@@ -4276,6 +4371,11 @@
       <c r="AG29" t="inlineStr">
         <is>
           <t>http://www.elandino.cl/2018/06/13/de-multiples-estocadas-hombre-mato-a-su-pareja-colombiana-y-se-autoinfirio-heridas-cortopunzantes-en-ingreso-a-cesfam/ http://www.elandino.cl/2018/06/12/consternacion-por-crimen-de-colombiana-en-la-comuna-de-calle-larga/</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4475,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -4755,32 +4855,32 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>Homicidio calificado</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>Abuso sexual agravado</t>
+          <t>Violación con homicidio</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2018-07-12</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Privado de libertad</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>13° Juzgado de Garantía de Santiago</t>
+          <t>7° Tribunal de Juicio Oral en lo Penal de Santiago</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo calificado</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
@@ -4791,6 +4891,16 @@
       <c r="AG33" t="inlineStr">
         <is>
           <t>http://www.t13.cl/noticia/nacional/detienen-hombre-acusado-violar-y-matar-nina-tres-anos</t>
+        </is>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>http://www.fiscaliadechile.cl/Fiscalia/sala_prensa/noticias_regional_det.do?id=17315</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -4898,11 +5008,6 @@
           <t>Sobreseída</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>2018-07-11</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>Deceso</t>
@@ -5090,7 +5195,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Rigoberto Ruiz</t>
+          <t>Rigoberto Ruiz Ramírez</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -5130,17 +5235,32 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2018-08-06</t>
+          <t>2022-01-18</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>6° Tribunal de Juicio Oral en lo Penal de Santiago</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>293-2021</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo simple</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
@@ -5151,6 +5271,16 @@
       <c r="AG36" t="inlineStr">
         <is>
           <t>https://www.eldesconcierto.cl/2018/08/06/pdi-detuvo-a-principal-sospechoso-de-femicidio-en-la-cisterna-que-se-encontraba-profugo/</t>
+        </is>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>https://www.pjud.cl/prensa-y-comunicaciones/noticias-del-poder-judicial/67990</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -5730,17 +5860,17 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Sobreseída</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2018-09-03</t>
+          <t>2020-01-12</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Deceso (muere por infarto en prisión preventiva)</t>
         </is>
       </c>
       <c r="AF41" t="inlineStr">
@@ -5751,6 +5881,16 @@
       <c r="AG41" t="inlineStr">
         <is>
           <t>https://www.biobiochile.cl/noticias/nacional/region-del-bio-bio/2018/08/30/detienen-a-marido-de-mujer-descuartizada-en-coronel-habria-confesado-autoria.shtml</t>
+        </is>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-del-bio-bio/2020/01/12/muere-anciano-de-86-anos-que-habria-descuartizado-a-esposa-en-coronel-estaba-en-prision-preventiva.shtml</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -5860,17 +6000,27 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2018-09-25</t>
+          <t>2021-07-12</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>6° Tribunal de Juicio Oral en lo Penal de Santiago</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>20 años de presidio efectivo</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
@@ -5881,6 +6031,16 @@
       <c r="AG42" t="inlineStr">
         <is>
           <t>https://www.cooperativa.cl/noticias/pais/policial/femicidio/nuevo-femicidio-en-el-bosque-sujeto-estrangulo-con-un-alambre-a-su-pareja/2018-09-25/043016.html</t>
+        </is>
+      </c>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-metropolitana/2021/07/12/sentencian-a-20-anos-de-carcel-a-hombre-que-estrangulo-y-asesino-a-su-pareja-en-el-bosque.shtml</t>
+        </is>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -6033,6 +6193,11 @@
           <t>Tatiana Judith Caniulaf Velásquez</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
           <t>Chilena</t>
@@ -6060,7 +6225,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>MEDIOS PROTEGEN SU IDENTIDAD</t>
+          <t>José Javier Cárdenas San Martín</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -6095,22 +6260,27 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2018-10-09</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Privado de libertad</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Paillaco</t>
+          <t>Tribunal de Juicio Oral en lo Penal de Valdivia</t>
+        </is>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo simple</t>
         </is>
       </c>
       <c r="AF44" t="inlineStr">
@@ -6121,6 +6291,16 @@
       <c r="AG44" t="inlineStr">
         <is>
           <t>http://www.lavozdepaillaco.cl/un-detenido-por-presunta-participacion-en-muerte-de-tatiana-judith-caniulaf-velasquez-en-sector-rural-de-paillaco/</t>
+        </is>
+      </c>
+      <c r="AH44" t="inlineStr">
+        <is>
+          <t>http://www.fiscaliadechile.cl/Fiscalia/sala_prensa/noticias_regional_det.do?id=17431</t>
+        </is>
+      </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -6225,22 +6405,27 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Privado de libertad</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Curicó</t>
+          <t>Tribunal de Juicio Oral en lo Penal de Curicó</t>
+        </is>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo calificado</t>
         </is>
       </c>
       <c r="AF45" t="inlineStr">
@@ -6251,6 +6436,16 @@
       <c r="AG45" t="inlineStr">
         <is>
           <t>https://www.cooperativa.cl/noticias/pais/region-del-maule/justicia-determino-prision-preventiva-para-autor-de-femicidio-en-romeral/2018-10-10/130449.html</t>
+        </is>
+      </c>
+      <c r="AH45" t="inlineStr">
+        <is>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-del-maule/2020/01/30/declaran-culpable-a-hombre-que-degollo-a-su-expareja-ante-plaza-donde-jugaban-ninos-en-romeral.shtml</t>
+        </is>
+      </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
         </is>
       </c>
     </row>
@@ -6498,6 +6693,11 @@
           <t>https://www.chvnoticias.cl/sucesos/conmocion-por-sujeto-que-mato-a-su-exesposa-con-un-hacha-y-luego-se-suicido-hija-encontro-los-cuerpos_20181024/</t>
         </is>
       </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -6710,27 +6910,32 @@
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>Homicidio calificado</t>
+          <t>Homicidio simple</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2019-08-06</t>
+          <t>2021-08-25</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Privado de libertad</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Puente Alto</t>
+          <t>Tribunal de Juicio Oral en lo Penal de Temuco</t>
+        </is>
+      </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>14 años de presidio en su grado medio</t>
         </is>
       </c>
       <c r="AF49" t="inlineStr">
@@ -6741,6 +6946,16 @@
       <c r="AG49" t="inlineStr">
         <is>
           <t>https://temucotelevision.cl/web/?p=31952#more-31952 https://www.biobiochile.cl/noticias/nacional/region-de-la-araucania/2018/11/16/confirman-detencion-de-hombre-acusado-por-asesinato-de-joven-santiaguina-en-la-araucania.shtml https://libertaddigital.cl/2019/08/06/homicidio-de-paola-alvarado-fiscalia-y-pdi-realizan-diligencia-en-fundo-de-curacautin/</t>
+        </is>
+      </c>
+      <c r="AH49" t="inlineStr">
+        <is>
+          <t>https://araucaniadiario.cl/contenido/12665/erwin-soto-es-sentenciado-a-14-anos-de-presidio-por-asesinar-a-joven-escort-en-c</t>
+        </is>
+      </c>
+      <c r="AJ49" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
         </is>
       </c>
     </row>
@@ -6970,17 +7185,32 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2019-10-29</t>
+          <t>2021-03-28</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Tribunal de Juicio Oral en lo Penal de Linares</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>20 años de presidio</t>
+        </is>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>10 años de presidio</t>
         </is>
       </c>
       <c r="AF51" t="inlineStr">
@@ -6991,6 +7221,16 @@
       <c r="AG51" t="inlineStr">
         <is>
           <t>http://www.radiobuenanueva.cl/reformalizan-a-sujeto-que-mato-a-mujer-al-interior-de-una-casa-en-semillero/</t>
+        </is>
+      </c>
+      <c r="AH51" t="inlineStr">
+        <is>
+          <t>https://www.septimapaginanoticias.cl/condenan-a-30-anos-de-carcel-al-homicida-y-abusador-sexual-julio-araya-miranda</t>
+        </is>
+      </c>
+      <c r="AJ51" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
         </is>
       </c>
     </row>
@@ -7075,22 +7315,37 @@
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>Violación con homicidio</t>
+          <t>Homicidio calificado con violación</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2019-06-26</t>
+          <t>2022-12-22</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>Prisión preventiva; Prisión preventiva</t>
+          <t>Privado de libertad; privado de libertad</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>6° Tribunal de Juicio Oral en lo Penal de Santiago</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>108-2021</t>
+        </is>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>18 años de presidio; 7 años de presidio</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
@@ -7101,6 +7356,16 @@
       <c r="AG52" t="inlineStr">
         <is>
           <t>http://diariocomunitario.cl/detienen-a-dos-sujetos-acusados-de-violar-golpear-y-atropellar-a-una-mujer-en-la-pintana/</t>
+        </is>
+      </c>
+      <c r="AH52" t="inlineStr">
+        <is>
+          <t>https://www.pjud.cl/prensa-y-comunicaciones/noticias-del-poder-judicial/84684</t>
+        </is>
+      </c>
+      <c r="AJ52" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
         </is>
       </c>
     </row>
@@ -7200,22 +7465,32 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2019-05-27</t>
+          <t>2021-06-05</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>Detenido</t>
+          <t>Privado de libertad</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Alto Hospicio</t>
+          <t>Tribunal de Juicio Oral en lo Penal de Iquique</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>100-2021</t>
+        </is>
+      </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo</t>
         </is>
       </c>
       <c r="AF53" t="inlineStr">
@@ -7226,6 +7501,16 @@
       <c r="AG53" t="inlineStr">
         <is>
           <t>https://www.diarioantofagasta.cl/regional/antofagasta/104634/detienen-en-antofagasta-a-profugo-de-la-justicia-por-asesinato-de-su-conviviente-embarazada/</t>
+        </is>
+      </c>
+      <c r="AH53" t="inlineStr">
+        <is>
+          <t>https://www.pjud.cl/prensa-y-comunicaciones/noticias-del-poder-judicial/57171</t>
+        </is>
+      </c>
+      <c r="AJ53" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
         </is>
       </c>
     </row>
@@ -7320,32 +7605,57 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>Tenencia ilegal de arma de fuego</t>
+          <t>Tenencia ilegal de arma de fuego; lesiones graves en contexto de violencia intrafamiliar</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2018-11-28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Privado de libertad</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Colina</t>
+          <t>Tribunal de Juicio Oral en lo Penal de Colina</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>2460-2022</t>
+        </is>
+      </c>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo</t>
+        </is>
+      </c>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>3 años y 1 día; 300 años días de presidio</t>
         </is>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
           <t>https://www.radioagricultura.cl/nacional/2018/11/28/decretan-prision-preventiva-para-detenido-por-femicidio-de-conviviente-en-colina.html</t>
+        </is>
+      </c>
+      <c r="AG54" t="inlineStr">
+        <is>
+          <t>https://www.pjud.cl/prensa-y-comunicaciones/noticias-del-poder-judicial/76647</t>
+        </is>
+      </c>
+      <c r="AJ54" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
         </is>
       </c>
     </row>
@@ -7710,7 +8020,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
